--- a/Programma/stats.xlsx
+++ b/Programma/stats.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeyp\Desktop\IKPHBV_Project\IKPHBV_Draag_Je_Masker_Detectie_Tycho_van_Veen-Joey_Peschier\Programma\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE613B3-DA76-4A8B-AF6D-37C7FD0A6088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,32 +78,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -118,23 +93,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -143,35 +102,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>29.82456140350877</c:v>
+                  <c:v>21.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.175438596491219</c:v>
+                  <c:v>78.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C7A2-4C4D-9C16-6D7AC97AD25A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
-        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -184,8 +129,6 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -199,26 +142,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -279,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,27 +248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,24 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -556,34 +457,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.82456140350877</v>
+        <v>21.875</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70.175438596491219</v>
+        <v>78.125</v>
       </c>
     </row>
   </sheetData>
